--- a/licensedocs/license_certificates.xlsx
+++ b/licensedocs/license_certificates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciradukunda/Documents/WORK/ElicenseUAT/license-management-system-frontend/licensedocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B441BA-31AB-B940-BDB3-DCA40592286B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E90E26-7EB2-4D42-B1A0-9B0BF5FC7568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{069B6A2B-B9BE-0340-8E09-6DD96E3C4550}"/>
   </bookViews>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +454,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +506,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -528,7 +529,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" t="s">
